--- a/日报与周报-叶家俊2018.01.17.xlsx
+++ b/日报与周报-叶家俊2018.01.17.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>时间</t>
   </si>
@@ -69,6 +69,30 @@
   </si>
   <si>
     <t>实现网页框架除了canvas以外，使用React组件调用；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写React前端代码；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写React前端代码；实现更新组件为React组件；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端代码；更新UI；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写React前端代码；实现画布更新；尚未实现React下的服务器ajax请求与本地更新。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周工作是在以前已经实现的html代码下，重新采用更先进的React结构编写代码，目前已经实现UI，组件，画布的显示和操作；实现服务器的请求与接收。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周计划将在此基础上继续完善，目的实现整体的先进结构。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -528,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -583,12 +607,20 @@
       <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
@@ -624,8 +656,12 @@
       <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="7"/>
